--- a/src/live_formato.xlsx
+++ b/src/live_formato.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,121 +578,73 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Supercopa de Italia</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ESPN HD</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Milan vs Inter</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2023-01-18 14:00:00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>14:00:00</t>
-        </is>
-      </c>
+          <t>NaT nan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Supercopa de Italia/ESPN HD / Milan vs Inter / 2023-01-18 14:00:00 - 14:00:00</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Premier #7-SOEN 16181</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ESPN HD</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Manchester City vs Tottenham</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2023-01-19 15:00:00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>15:00:00</t>
-        </is>
-      </c>
+          <t>NaT nan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15:00:00</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Premier #7-SOEN 16181/ESPN HD / Manchester City vs Tottenham / 2023-01-19 15:00:00 - 15:00:00</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Bundes #16-SOGB 105967</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ESPN HD</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RB Leipzig vs Bayern Munich</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2023-01-20 14:30:00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>14:30:00</t>
-        </is>
-      </c>
+          <t>NaT nan</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Bundes #16-SOGB 105967/ESPN HD / RB Leipzig vs Bayern Munich / 2023-01-20 14:30:00 - 14:30:00</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -700,37 +652,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Riyadh Season Cup</t>
+          <t>Copa de Alemania SOGR 959</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ESPN HD</t>
+          <t>ESPN EXTRA HD</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PSG vs Al Hilal + Al Nassr</t>
+          <t>Mainz 05 vs Bayern Munich</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-01-19 12:00:00</t>
+          <t>2023-02-01 14:45:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Riyadh Season Cup/ESPN HD / PSG vs Al Hilal + Al Nassr / 2023-01-19 12:00:00 - 12:00:00</t>
+          <t>Copa de Alemania SOGR 959/ESPN EXTRA HD / Mainz 05 vs Bayern Munich / 2023-02-01 14:45:00 - 14:45:00</t>
         </is>
       </c>
     </row>
@@ -740,7 +692,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Premier #21-SOEN 16320</t>
+          <t>LaLiga #17-SOIG 14983</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -750,27 +702,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Liverpool vs Chelsea</t>
+          <t>Betis vs Barcelona</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023-01-21 07:30:00</t>
+          <t>2023-02-01 15:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Premier #21-SOEN 16320/ESPN HD / Liverpool vs Chelsea / 2023-01-21 07:30:00 - 07:30:00</t>
+          <t>LaLiga #17-SOIG 14983/ESPN HD / Betis vs Barcelona / 2023-02-01 15:00:00 - 15:00:00</t>
         </is>
       </c>
     </row>
@@ -780,7 +732,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LaLiga #18-SOIG 14989</t>
+          <t>Carabao #SF - VUELTA-SOEC 1202</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -790,12 +742,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sevilla vs Cádiz</t>
+          <t>Manchester United vs Nottingham Forest</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-01-21 15:00:00</t>
+          <t>2023-02-01 15:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -810,7 +762,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>LaLiga #18-SOIG 14989/ESPN 2 / Sevilla vs Cádiz / 2023-01-21 15:00:00 - 15:00:00</t>
+          <t>Carabao #SF - VUELTA-SOEC 1202/ESPN 2 / Manchester United vs Nottingham Forest / 2023-02-01 15:00:00 - 15:00:00</t>
         </is>
       </c>
     </row>
@@ -820,37 +772,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Eredivisie #17-SOID 9880</t>
+          <t>Premier #22-SOEN 16327</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ESPN 2</t>
+          <t>ESPN HD</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Feyenoord vs Ajax</t>
+          <t>Chelsea vs Fulham</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023-01-22 08:30:00</t>
+          <t>2023-02-03 15:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Eredivisie #17-SOID 9880/ESPN 2 / Feyenoord vs Ajax / 2023-01-22 08:30:00 - 08:30:00</t>
+          <t>Premier #22-SOEN 16327/ESPN HD / Chelsea vs Fulham / 2023-02-03 15:00:00 - 15:00:00</t>
         </is>
       </c>
     </row>
@@ -860,7 +812,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Premier #21-SOEN 16315</t>
+          <t>Premier #22-SOEN 16328</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -870,27 +822,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Arsenal vs Manchester United</t>
+          <t>Everton vs Arsenal</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2023-01-22 11:30:00</t>
+          <t>2023-02-04 07:30:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Premier #21-SOEN 16315/ESPN HD / Arsenal vs Manchester United / 2023-01-22 11:30:00 - 11:30:00</t>
+          <t>Premier #22-SOEN 16328/ESPN HD / Everton vs Arsenal / 2023-02-04 07:30:00 - 07:30:00</t>
         </is>
       </c>
     </row>
@@ -900,37 +852,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Serie A #19-SOIM 14934</t>
+          <t>Ligue 1 #22-SOFL 4334</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ESPN 3</t>
+          <t>ESPN HD</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Spezia vs Roma</t>
+          <t>PSG vs Toulouse</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2023-01-22 12:00:00</t>
+          <t>2023-02-04 11:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Serie A #19-SOIM 14934/ESPN 3 / Spezia vs Roma / 2023-01-22 12:00:00 - 12:00:00</t>
+          <t>Ligue 1 #22-SOFL 4334/ESPN HD / PSG vs Toulouse / 2023-02-04 11:00:00 - 11:00:00</t>
         </is>
       </c>
     </row>
@@ -940,37 +892,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LaLiga #18-SOIG 14988</t>
+          <t>Serie A #21-SOIM 14950</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ESPN 2</t>
+          <t>ESPN2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Barcelona vs Getafe</t>
+          <t>Roma vs Empoli</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2023-01-22 12:30:00</t>
+          <t>2023-02-04 12:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>LaLiga #18-SOIG 14988/ESPN 2 / Barcelona vs Getafe / 2023-01-22 12:30:00 - 12:30:00</t>
+          <t>Serie A #21-SOIM 14950/ESPN2 / Roma vs Empoli / 2023-02-04 12:00:00 - 12:00:00</t>
         </is>
       </c>
     </row>
@@ -980,7 +932,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Serie A #19-SOIM 14929</t>
+          <t>LaLiga #20-SOIG 15000</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -990,27 +942,347 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Juventus vs Atalanta</t>
+          <t>Betis vs Celta de Vigo</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2023-01-22 14:45:00</t>
+          <t>2023-02-04 15:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>LaLiga #20-SOIG 15000/ESPN HD / Betis vs Celta de Vigo / 2023-02-04 15:00:00 - 15:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>LPF AFA #2-SOAR 4086</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ESPN HD</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Belgrano vs River Plate</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2023-02-04 17:15:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>LPF AFA #2-SOAR 4086/ESPN HD / Belgrano vs River Plate / 2023-02-04 17:15:00 - 17:15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Premier #22-SOEN 16331</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ESPN HD</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Notthingham Forest vs Leeds Utd</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2023-02-05 09:00:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Premier #22-SOEN 16331/ESPN HD / Notthingham Forest vs Leeds Utd / 2023-02-05 09:00:00 - 09:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Premier #22-SOEN 16332</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ESPN HD</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tottenham vs Manchester City</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2023-02-05 11:30:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>11:30:00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>11:30:00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Premier #22-SOEN 16332/ESPN HD / Tottenham vs Manchester City / 2023-02-05 11:30:00 - 11:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Serie A #21-SOIM 14948</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ESPN HD</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Inter vs Milan</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2023-02-05 14:45:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>14:45:00</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>14:45:00</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Serie A #19-SOIM 14929/ESPN HD / Juventus vs Atalanta / 2023-01-22 14:45:00 - 14:45:00</t>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Serie A #21-SOIM 14948/ESPN HD / Inter vs Milan / 2023-02-05 14:45:00 - 14:45:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>LPF AFA #2-SOAR 4090</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ESPN HD</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Boca Juniors vs Central Córdoba (SdE)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2023-02-05 17:15:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>LPF AFA #2-SOAR 4090/ESPN HD / Boca Juniors vs Central Córdoba (SdE) / 2023-02-05 17:15:00 - 17:15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>LaLiga #20-SOIG 14998</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ESPN 2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Barcelona vs Sevilla</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2023-02-05 15:00:00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>LaLiga #20-SOIG 14998/ESPN 2 / Barcelona vs Sevilla / 2023-02-05 15:00:00 - 15:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Bundes #19-SOGB 105998</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ESPN 4</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Wolfsburg vs Bayern Munich</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2023-02-05 11:30:00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>11:30:00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>11:30:00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Bundes #19-SOGB 105998/ESPN 4 / Wolfsburg vs Bayern Munich / 2023-02-05 11:30:00 - 11:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Carioca Serie A</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>GOLTV</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Fluminense  vs Audax Rio</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2023-02-05 16:00:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Carioca Serie A/GOLTV / Fluminense  vs Audax Rio / 2023-02-05 16:00:00 - 16:00:00</t>
         </is>
       </c>
     </row>

--- a/src/live_formato.xlsx
+++ b/src/live_formato.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,37 +476,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LA NOCHE CREMA</t>
+          <t>Premier #23-SOEN 16340</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GOLPERU HD</t>
+          <t>ESPN HD</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>UNIVERSITARIO vs AUCAS (Ecu)</t>
+          <t>Liverpool vs Everton</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-01-07 20:00:00</t>
+          <t>2023-02-13 15:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>LA NOCHE CREMA/GOLPERU HD / UNIVERSITARIO vs AUCAS (Ecu) / 2023-01-07 20:00:00 - 20:00:00</t>
+          <t>Premier #23-SOEN 16340/ESPN HD / Liverpool vs Everton / 2023-02-13 15:00:00 - 15:00:00</t>
         </is>
       </c>
     </row>
@@ -516,22 +516,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TARDE DEL PAPÁ</t>
+          <t>UCL #8vos - IDA- SOIU 7894</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GOLPERU HD</t>
+          <t>ESPN HD</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CIENCIANO vs MAGALLANES (Chi)</t>
+          <t>PSG (FRA) vs Bayern Munich (ALE)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2023-01-08 15:00:00</t>
+          <t>2023-02-14 15:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>TARDE DEL PAPÁ/GOLPERU HD / CIENCIANO vs MAGALLANES (Chi) / 2023-01-08 15:00:00 - 15:00:00</t>
+          <t>UCL #8vos - IDA- SOIU 7894/ESPN HD / PSG (FRA) vs Bayern Munich (ALE) / 2023-02-14 15:00:00 - 15:00:00</t>
         </is>
       </c>
     </row>
@@ -554,97 +554,161 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>UCL #8vos - IDA- SOIU 7893</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ESPN 2</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Milan (ITA) vs Tottenham (ING)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NaT nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>2023-02-14 15:00:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>UCL #8vos - IDA- SOIU 7893/ESPN 2 / Milan (ITA) vs Tottenham (ING) / 2023-02-14 15:00:00 - 15:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Libertadores FASE 1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ESPN HD</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Nacional PAR vs Sport Huancayo PER</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NaT nan</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>2023-02-14 19:00:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Libertadores FASE 1/ESPN HD / Nacional PAR vs Sport Huancayo PER / 2023-02-14 19:00:00 - 19:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>UCL #8vos - IDA- SOIU 7896</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ESPN HD</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Borussia Dortmund (ALE) vs Chelsea (ING)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NaT nan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>2023-02-15 15:00:00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>UCL #8vos - IDA- SOIU 7896/ESPN HD / Borussia Dortmund (ALE) vs Chelsea (ING) / 2023-02-15 15:00:00 - 15:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>UCL #8vos - IDA- SOIU 7895</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ESPN 2</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Club Brujas (BEL) vs Benfica (POR)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NaT nan</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>2023-02-15 15:00:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>UCL #8vos - IDA- SOIU 7895/ESPN 2 / Club Brujas (BEL) vs Benfica (POR) / 2023-02-15 15:00:00 - 15:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -652,37 +716,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Copa de Alemania SOGR 959</t>
+          <t>LaLiga #21-SOIG 15003</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ESPN EXTRA HD</t>
+          <t>ESPN 3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mainz 05 vs Bayern Munich</t>
+          <t>Real Madrid vs Elche</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2023-02-01 14:45:00</t>
+          <t>2023-02-15 15:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Copa de Alemania SOGR 959/ESPN EXTRA HD / Mainz 05 vs Bayern Munich / 2023-02-01 14:45:00 - 14:45:00</t>
+          <t>LaLiga #21-SOIG 15003/ESPN 3 / Real Madrid vs Elche / 2023-02-15 15:00:00 - 15:00:00</t>
         </is>
       </c>
     </row>
@@ -692,7 +756,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LaLiga #17-SOIG 14983</t>
+          <t>Libertadores FASE 1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -702,27 +766,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Betis vs Barcelona</t>
+          <t xml:space="preserve">El Nacional ECU vs Nacional Potosí BOL </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2023-02-01 15:00:00</t>
+          <t>2023-02-15 17:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>LaLiga #17-SOIG 14983/ESPN HD / Betis vs Barcelona / 2023-02-01 15:00:00 - 15:00:00</t>
+          <t>Libertadores FASE 1/ESPN HD / El Nacional ECU vs Nacional Potosí BOL  / 2023-02-15 17:00:00 - 17:00:00</t>
         </is>
       </c>
     </row>
@@ -732,37 +796,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Carabao #SF - VUELTA-SOEC 1202</t>
+          <t>UEL #PO IDA-SOUC 5327</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ESPN 2</t>
+          <t>ESPN HD</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Manchester United vs Nottingham Forest</t>
+          <t>Barcelona vs Manchester United</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-02-01 15:00:00</t>
+          <t>2023-02-16 12:45:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Carabao #SF - VUELTA-SOEC 1202/ESPN 2 / Manchester United vs Nottingham Forest / 2023-02-01 15:00:00 - 15:00:00</t>
+          <t>UEL #PO IDA-SOUC 5327/ESPN HD / Barcelona vs Manchester United / 2023-02-16 12:45:00 - 12:45:00</t>
         </is>
       </c>
     </row>
@@ -772,37 +836,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Premier #22-SOEN 16327</t>
+          <t>UEL #PO IDA-SOUC 5330</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ESPN HD</t>
+          <t>ESPN 2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Chelsea vs Fulham</t>
+          <t>Salzburg vs Roma</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023-02-03 15:00:00</t>
+          <t>2023-02-16 12:45:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:45:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Premier #22-SOEN 16327/ESPN HD / Chelsea vs Fulham / 2023-02-03 15:00:00 - 15:00:00</t>
+          <t>UEL #PO IDA-SOUC 5330/ESPN 2 / Salzburg vs Roma / 2023-02-16 12:45:00 - 12:45:00</t>
         </is>
       </c>
     </row>
@@ -812,7 +876,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Premier #22-SOEN 16328</t>
+          <t>UEL #PO IDA-SOUC 5331</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -822,27 +886,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Everton vs Arsenal</t>
+          <t>Juventus vs Nantes</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2023-02-04 07:30:00</t>
+          <t>2023-02-16 15:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Premier #22-SOEN 16328/ESPN HD / Everton vs Arsenal / 2023-02-04 07:30:00 - 07:30:00</t>
+          <t>UEL #PO IDA-SOUC 5331/ESPN HD / Juventus vs Nantes / 2023-02-16 15:00:00 - 15:00:00</t>
         </is>
       </c>
     </row>
@@ -852,37 +916,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ligue 1 #22-SOFL 4334</t>
+          <t>UEL #PO IDA-SOUC 5334</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ESPN HD</t>
+          <t>ESPN 2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PSG vs Toulouse</t>
+          <t>Sevilla vs PSV Eindhoven</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2023-02-04 11:00:00</t>
+          <t>2023-02-16 15:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Ligue 1 #22-SOFL 4334/ESPN HD / PSG vs Toulouse / 2023-02-04 11:00:00 - 11:00:00</t>
+          <t>UEL #PO IDA-SOUC 5334/ESPN 2 / Sevilla vs PSV Eindhoven / 2023-02-16 15:00:00 - 15:00:00</t>
         </is>
       </c>
     </row>
@@ -892,37 +956,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Serie A #21-SOIM 14950</t>
+          <t>Libertadores FASE 1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ESPN2</t>
+          <t>ESPN HD</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Roma vs Empoli</t>
+          <t>Zamora VEN vs Boston River URU</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2023-02-04 12:00:00</t>
+          <t>2023-02-16 19:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Serie A #21-SOIM 14950/ESPN2 / Roma vs Empoli / 2023-02-04 12:00:00 - 12:00:00</t>
+          <t>Libertadores FASE 1/ESPN HD / Zamora VEN vs Boston River URU / 2023-02-16 19:00:00 - 19:00:00</t>
         </is>
       </c>
     </row>
@@ -932,7 +996,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LaLiga #20-SOIG 15000</t>
+          <t>Serie A #23-SOIM 14972</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -942,27 +1006,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Betis vs Celta de Vigo</t>
+          <t>Sassuolo vs Napoli</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2023-02-04 15:00:00</t>
+          <t>2023-02-17 14:45:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>LaLiga #20-SOIG 15000/ESPN HD / Betis vs Celta de Vigo / 2023-02-04 15:00:00 - 15:00:00</t>
+          <t>Serie A #23-SOIM 14972/ESPN HD / Sassuolo vs Napoli / 2023-02-17 14:45:00 - 14:45:00</t>
         </is>
       </c>
     </row>
@@ -972,37 +1036,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LPF AFA #2-SOAR 4086</t>
+          <t xml:space="preserve">Liga 1 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ESPN HD</t>
+          <t>GOLPERÚ HD</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Belgrano vs River Plate</t>
+          <t>Boys  vs Mannucci</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2023-02-04 17:15:00</t>
+          <t>2023-02-18 15:30:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>LPF AFA #2-SOAR 4086/ESPN HD / Belgrano vs River Plate / 2023-02-04 17:15:00 - 17:15:00</t>
+          <t>Liga 1 /GOLPERÚ HD / Boys  vs Mannucci / 2023-02-18 15:30:00 - 15:30:00</t>
         </is>
       </c>
     </row>
@@ -1012,37 +1076,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Premier #22-SOEN 16331</t>
+          <t xml:space="preserve">Liga 1 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ESPN HD</t>
+          <t>GOLPERÚ HD</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Notthingham Forest vs Leeds Utd</t>
+          <t>Universitario vs Alianza Lima</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2023-02-05 09:00:00</t>
+          <t>2023-02-19 15:30:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Premier #22-SOEN 16331/ESPN HD / Notthingham Forest vs Leeds Utd / 2023-02-05 09:00:00 - 09:00:00</t>
+          <t>Liga 1 /GOLPERÚ HD / Universitario vs Alianza Lima / 2023-02-19 15:30:00 - 15:30:00</t>
         </is>
       </c>
     </row>
@@ -1052,37 +1116,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Premier #22-SOEN 16332</t>
+          <t xml:space="preserve">Liga 1 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ESPN HD</t>
+          <t>GOLPERÚ HD</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tottenham vs Manchester City</t>
+          <t>Municipal  vs Binacional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2023-02-05 11:30:00</t>
+          <t>2023-02-20 15:30:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Premier #22-SOEN 16332/ESPN HD / Tottenham vs Manchester City / 2023-02-05 11:30:00 - 11:30:00</t>
+          <t>Liga 1 /GOLPERÚ HD / Municipal  vs Binacional / 2023-02-20 15:30:00 - 15:30:00</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1156,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Serie A #21-SOIM 14948</t>
+          <t>Premier #24-SOEN 16344</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1102,27 +1166,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Inter vs Milan</t>
+          <t>Aston Villa vs Arsenal</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2023-02-05 14:45:00</t>
+          <t>2023-02-18 07:30:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Serie A #21-SOIM 14948/ESPN HD / Inter vs Milan / 2023-02-05 14:45:00 - 14:45:00</t>
+          <t>Premier #24-SOEN 16344/ESPN HD / Aston Villa vs Arsenal / 2023-02-18 07:30:00 - 07:30:00</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1196,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LPF AFA #2-SOAR 4090</t>
+          <t>Premier #24-SOEN 16350</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1142,27 +1206,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Boca Juniors vs Central Córdoba (SdE)</t>
+          <t>Newcastle vs Liverpool</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2023-02-05 17:15:00</t>
+          <t>2023-02-18 12:30:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>LPF AFA #2-SOAR 4090/ESPN HD / Boca Juniors vs Central Córdoba (SdE) / 2023-02-05 17:15:00 - 17:15:00</t>
+          <t>Premier #24-SOEN 16350/ESPN HD / Newcastle vs Liverpool / 2023-02-18 12:30:00 - 12:30:00</t>
         </is>
       </c>
     </row>
@@ -1172,37 +1236,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LaLiga #20-SOIG 14998</t>
+          <t>LPF AFA #4-SOAR 4122</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ESPN 2</t>
+          <t>ESPN HD</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Barcelona vs Sevilla</t>
+          <t>Tigre vs River Plate</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2023-02-05 15:00:00</t>
+          <t>2023-02-18 16:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>LaLiga #20-SOIG 14998/ESPN 2 / Barcelona vs Sevilla / 2023-02-05 15:00:00 - 15:00:00</t>
+          <t>LPF AFA #4-SOAR 4122/ESPN HD / Tigre vs River Plate / 2023-02-18 16:00:00 - 16:00:00</t>
         </is>
       </c>
     </row>
@@ -1212,37 +1276,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bundes #19-SOGB 105998</t>
+          <t>LaLiga #22-SOIG 15009</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ESPN 4</t>
+          <t>ESPN 2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wolfsburg vs Bayern Munich</t>
+          <t>Real Sociedad vs Celta de Vigo</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2023-02-05 11:30:00</t>
+          <t>2023-02-18 08:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Bundes #19-SOGB 105998/ESPN 4 / Wolfsburg vs Bayern Munich / 2023-02-05 11:30:00 - 11:30:00</t>
+          <t>LaLiga #22-SOIG 15009/ESPN 2 / Real Sociedad vs Celta de Vigo / 2023-02-18 08:00:00 - 08:00:00</t>
         </is>
       </c>
     </row>
@@ -1252,37 +1316,397 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Carioca Serie A</t>
+          <t>Bundes #21-SOGB 106015</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GOLTV</t>
+          <t>ESPN 2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Fluminense  vs Audax Rio</t>
+          <t>Eintracht Frankfurt vs Werder Bremen</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2023-02-05 16:00:00</t>
+          <t>2023-02-18 12:30:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Carioca Serie A/GOLTV / Fluminense  vs Audax Rio / 2023-02-05 16:00:00 - 16:00:00</t>
+          <t>Bundes #21-SOGB 106015/ESPN 2 / Eintracht Frankfurt vs Werder Bremen / 2023-02-18 12:30:00 - 12:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Serie A #23-SOIM 14967</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ESPN 2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Inter vs Udinese</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2023-02-18 14:45:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>14:45:00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>14:45:00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Serie A #23-SOIM 14967/ESPN 2 / Inter vs Udinese / 2023-02-18 14:45:00 - 14:45:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Bundes #21-SOGB 106014</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ESPN 4</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Borussia M'gladbach vs Bayern Munich</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2023-02-18 09:30:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>09:30:00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>09:30:00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Bundes #21-SOGB 106014/ESPN 4 / Borussia M'gladbach vs Bayern Munich / 2023-02-18 09:30:00 - 09:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Ligue 1 #23-SOFL 4346</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ESPN HD</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>PSG vs Lille</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2023-02-19 07:00:00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>07:00:00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>07:00:00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Ligue 1 #23-SOFL 4346/ESPN HD / PSG vs Lille / 2023-02-19 07:00:00 - 07:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Premier #24-SOEN 16349</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ESPN HD</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Manchester United vs Leicester City</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2023-02-19 09:00:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Premier #24-SOEN 16349/ESPN HD / Manchester United vs Leicester City / 2023-02-19 09:00:00 - 09:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Premier #24-SOEN 16352</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ESPN HD</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Tottenham vs West Ham</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2023-02-19 11:30:00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>11:30:00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>11:30:00</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Premier #24-SOEN 16352/ESPN HD / Tottenham vs West Ham / 2023-02-19 11:30:00 - 11:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>LaLiga #22-SOIG 15008</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ESPN HD</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Barcelona vs Cadiz</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2023-02-19 15:00:00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>LaLiga #22-SOIG 15008/ESPN HD / Barcelona vs Cadiz / 2023-02-19 15:00:00 - 15:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>LPF AFA #4-SOAR 4111</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ESPN HD</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Boca Juniors vs Platense</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2023-02-19 15:15:00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>15:15:00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>15:15:00</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>LPF AFA #4-SOAR 4111/ESPN HD / Boca Juniors vs Platense / 2023-02-19 15:15:00 - 15:15:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Serie A #23-SOIM 14973</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ESPN 2</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Spezia vs Juventus</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2023-02-19 12:00:00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Serie A #23-SOIM 14973/ESPN 2 / Spezia vs Juventus / 2023-02-19 12:00:00 - 12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Serie A #23-SOIM 14969</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ESPN 2</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Roma vs Hellas Verona</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2023-02-19 14:45:00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>14:45:00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>14:45:00</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Serie A #23-SOIM 14969/ESPN 2 / Roma vs Hellas Verona / 2023-02-19 14:45:00 - 14:45:00</t>
         </is>
       </c>
     </row>

--- a/src/live_formato.xlsx
+++ b/src/live_formato.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,12 +490,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Premier #36-SOEN 16471</t>
+          <t>LPF AFA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>Vélez</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -505,16 +505,16 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>45061</v>
+        <v>45075</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -523,12 +523,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2023-05-15 14:00:00</t>
+          <t>2023-05-29 19:30:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Leicester City vs. Liverpool</t>
+          <t>Vélez vs. River Plate</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UCL #SF - VTA- SOIU 7920</t>
+          <t>UEFA Europa League - Final</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Inter (ITA)</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -553,16 +553,16 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Milan (ITA)</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45062</v>
+        <v>45077</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -571,12 +571,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2023-05-16 14:00:00</t>
+          <t>2023-05-31 13:45:00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Inter (ITA) vs. Milan (ITA)</t>
+          <t>Sevilla vs. Roma</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UCL #SF - VTA- SOIU 7919</t>
+          <t>LPF AFA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Manchester City (ING)</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -601,16 +601,16 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Real Madrid (ESP)</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45063</v>
+        <v>45078</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -619,12 +619,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2023-05-17 14:00:00</t>
+          <t>2023-06-01 19:30:00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Manchester City (ING) vs. Real Madrid (ESP)</t>
+          <t>Arsenal vs. Boca Juniors</t>
         </is>
       </c>
     </row>
@@ -634,12 +634,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>UEL #SF Vuelta-SOUC 5369</t>
+          <t>LPF AFA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -649,30 +649,30 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:15:00</t>
         </is>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45064</v>
+        <v>45080</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ESPN HD</t>
+          <t>ESPN 4</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2023-05-18 14:00:00</t>
+          <t>2023-06-03 14:15:00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Sevilla vs. Juventus</t>
+          <t>River Plate vs. Defensa y Justicia</t>
         </is>
       </c>
     </row>
@@ -682,12 +682,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UEL #SF - Vuelta-SOUC 5370</t>
+          <t>Emirates FA CUP - Final</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,30 +697,30 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>08:50:00</t>
         </is>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45064</v>
+        <v>45080</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ESPN 3</t>
+          <t>ESPN HD</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2023-05-18 14:00:00</t>
+          <t>2023-06-03 08:50:00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Bayer Leverkusen vs. Roma</t>
+          <t>Manchester City vs. Manchester United</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LPF AFA #17-SOAR 4298</t>
+          <t>Copa Alemana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Argentinos Jrs.</t>
+          <t>Leipzig</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -745,30 +745,30 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Frankfurt</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>12:50:00</t>
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>45065</v>
+        <v>45080</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ESPN HD</t>
+          <t>ESPN 2</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2023-05-19 19:30:00</t>
+          <t>2023-06-03 12:50:00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Argentinos Jrs. vs. Boca Juniors</t>
+          <t>Leipzig vs. Frankfurt</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Premier League Fecha #37 </t>
+          <t>Ligue 1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nottingham Forest</t>
+          <t>PSG</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -793,16 +793,16 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>11:20:00</t>
+          <t>13:50:00</t>
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>45066</v>
+        <v>45080</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -811,12 +811,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2023-05-20 11:20:00</t>
+          <t>2023-06-03 13:50:00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nottingham Forest vs. Arsenal</t>
+          <t>PSG vs. Clermont</t>
         </is>
       </c>
     </row>
@@ -826,12 +826,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bundesliga Fecha #33 </t>
+          <t>Serie A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bayern Munich</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -841,30 +841,30 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>11:20:00</t>
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>45066</v>
+        <v>45081</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ESPN 4</t>
+          <t>ESPN 3</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2023-05-20 11:30:00</t>
+          <t>2023-06-04 11:20:00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bayern Munich vs. RB Leipzig</t>
+          <t>Torino vs. Inter</t>
         </is>
       </c>
     </row>
@@ -874,12 +874,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">LaLiga Fecha #35 </t>
+          <t>Serie A</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Barcelona</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -889,30 +889,30 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>13:50:00</t>
+          <t>11:20:00</t>
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>45066</v>
+        <v>45081</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ESPN HD</t>
+          <t>ESPN 2</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2023-05-20 13:50:00</t>
+          <t>2023-06-04 11:20:00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Barcelona vs. Real Sociedad</t>
+          <t>Napoli vs. Sampdoria</t>
         </is>
       </c>
     </row>
@@ -922,12 +922,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">LaLiga Fecha #35 </t>
+          <t>FECHA #18 - APERTURA 2023</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atlético Madrid</t>
+          <t>Universitario</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -937,30 +937,30 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Cusco FC</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>45067</v>
+        <v>45079</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ESPN 3</t>
+          <t>GOLPERU HD</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2023-05-21 09:00:00</t>
+          <t>2023-06-02 20:00:00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Atlético Madrid vs. Osasuna</t>
+          <t>Universitario vs. Cusco FC</t>
         </is>
       </c>
     </row>
@@ -970,12 +970,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Premier League Fecha #37 </t>
+          <t>FECHA #18 - APERTURA 2023</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Manchester City</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -985,30 +985,30 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Alianza Sullana</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>09:50:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>45067</v>
+        <v>45080</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ESPN HD</t>
+          <t>GOLPERU HD</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2023-05-21 09:50:00</t>
+          <t>2023-06-03 15:00:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Manchester City vs. Chelsea</t>
+          <t>Municipal vs. Alianza Sullana</t>
         </is>
       </c>
     </row>
@@ -1018,12 +1018,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Serie A Fecha #36 </t>
+          <t>FECHA #18 - APERTURA 2023</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Napoli</t>
+          <t>Sport Boys</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1033,270 +1033,30 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Sport Huancayo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10:50:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>45067</v>
+        <v>45081</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>ESPN EXTRA HD</t>
+          <t>GOLPERU HD</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2023-05-21 10:50:00</t>
+          <t>2023-06-04 15:30:00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Napoli vs. Inter</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LaLiga Fecha #35 </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Valencia</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>vs.</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Real Madrid</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>11:15:00</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>45067</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ESPN 3</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2023-05-21 11:15:00</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Valencia vs. Real Madrid</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LPF AFA Fecha #17 </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> River Plate</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>vs.</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Platense</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>18:20:00</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>45067</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ESPN HD</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2023-05-21 18:20:00</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> River Plate vs. Platense</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>FECHA #8 - APERTURA 2023</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Carlos A. Mannucci</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>vs.</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>UTC</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>19:30:00</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>45063</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>GOLPERU HD</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2023-05-17 19:30:00</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Carlos A. Mannucci vs. UTC</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>FECHA #16 - APERTURA 2023</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Universitario</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>vs.</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>U. César Vallejo</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>45065</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>GOLPERU HD</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2023-05-19 20:30:00</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Universitario vs. U. César Vallejo</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>FECHA #16 - APERTURA 2023</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Deportivo Municipal</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>vs.</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Sport Huancayo</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>15:00:00</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>45067</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>GOLPERU HD</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2023-05-21 15:00:00</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Deportivo Municipal vs. Sport Huancayo</t>
+          <t>Sport Boys vs. Sport Huancayo</t>
         </is>
       </c>
     </row>
